--- a/TPE.xlsx
+++ b/TPE.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Taille</t>
   </si>
@@ -70,6 +75,9 @@
   </si>
   <si>
     <t>Force appliquée de 15000 kN pour tous les tests sur 100 mm</t>
+  </si>
+  <si>
+    <t>Advanced</t>
   </si>
 </sst>
 </file>
@@ -121,6 +129,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -168,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>25</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>20</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>10</v>
       </c>
@@ -1419,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>5</v>
       </c>
@@ -1442,9 +1453,160 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>279</v>
+      </c>
+      <c r="E57">
+        <v>1726</v>
+      </c>
+      <c r="F57">
+        <v>23362</v>
+      </c>
+      <c r="G57">
+        <v>0.01</v>
+      </c>
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>504</v>
+      </c>
+      <c r="E58">
+        <v>3095</v>
+      </c>
+      <c r="F58">
+        <v>24270</v>
+      </c>
+      <c r="G58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H58">
+        <v>14</v>
+      </c>
+      <c r="I58">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>912</v>
+      </c>
+      <c r="E59">
+        <v>5569</v>
+      </c>
+      <c r="F59">
+        <v>24436</v>
+      </c>
+      <c r="G59">
+        <v>0.08</v>
+      </c>
+      <c r="H59">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1628</v>
+      </c>
+      <c r="E60">
+        <v>9893</v>
+      </c>
+      <c r="F60">
+        <v>24934</v>
+      </c>
+      <c r="G60">
+        <v>0.08</v>
+      </c>
+      <c r="H60">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>3710</v>
+      </c>
+      <c r="E61">
+        <v>22436</v>
+      </c>
+      <c r="F61">
+        <v>25042</v>
+      </c>
+      <c r="G61">
+        <v>0.2</v>
+      </c>
+      <c r="H61">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>912</v>
+      </c>
+      <c r="E68">
+        <v>5667</v>
+      </c>
+      <c r="F68">
+        <v>25182</v>
+      </c>
+      <c r="G68">
+        <v>0.08</v>
+      </c>
+      <c r="H68">
+        <v>22</v>
+      </c>
+      <c r="I68">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1628</v>
+      </c>
+      <c r="E69">
+        <v>10019</v>
+      </c>
+      <c r="F69">
+        <v>24986</v>
+      </c>
+      <c r="G69">
+        <v>0.22</v>
+      </c>
+      <c r="H69">
+        <v>33</v>
+      </c>
+      <c r="I69">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/TPE.xlsx
+++ b/TPE.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Téléchargements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1896AFD3-6437-42FC-8266-70C754E1AF7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,6 +213,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -247,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,13 +1132,13 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E36">
-        <v>3149</v>
+        <v>2849</v>
       </c>
       <c r="F36">
-        <v>24298</v>
+        <v>24594</v>
       </c>
       <c r="G36">
         <v>0.03</v>
@@ -1220,13 +1255,13 @@
         <v>50</v>
       </c>
       <c r="D43">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E43">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="F43">
-        <v>23812</v>
+        <v>23892</v>
       </c>
       <c r="G43">
         <v>0.02</v>
@@ -1243,13 +1278,13 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>3765</v>
+        <v>3621</v>
       </c>
       <c r="E44">
-        <v>3905</v>
+        <v>3762</v>
       </c>
       <c r="F44">
-        <v>24152</v>
+        <v>24046</v>
       </c>
       <c r="G44">
         <v>0.03</v>
@@ -1266,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="D45">
-        <v>5898</v>
+        <v>5653</v>
       </c>
       <c r="E45">
-        <v>6074</v>
+        <v>5829</v>
       </c>
       <c r="F45">
-        <v>24133</v>
+        <v>24070</v>
       </c>
       <c r="G45">
         <v>0.05</v>
@@ -1343,13 +1378,13 @@
         <v>50</v>
       </c>
       <c r="D50">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E50">
-        <v>4081</v>
+        <v>4103</v>
       </c>
       <c r="F50">
-        <v>24282</v>
+        <v>24572</v>
       </c>
       <c r="G50">
         <v>0.01</v>
@@ -1366,13 +1401,13 @@
         <v>25</v>
       </c>
       <c r="D51">
-        <v>3765</v>
+        <v>3621</v>
       </c>
       <c r="E51">
-        <v>15341</v>
+        <v>14767</v>
       </c>
       <c r="F51">
-        <v>24302</v>
+        <v>24296</v>
       </c>
       <c r="G51">
         <v>0.09</v>
@@ -1389,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="D52">
-        <v>5898</v>
+        <v>5653</v>
       </c>
       <c r="E52">
-        <v>23945</v>
+        <v>22965</v>
       </c>
       <c r="F52">
-        <v>24232</v>
+        <v>24234</v>
       </c>
       <c r="G52">
         <v>0.17</v>
@@ -1441,7 +1476,7 @@
         <v>377851</v>
       </c>
       <c r="F54">
-        <v>24240</v>
+        <v>24238</v>
       </c>
       <c r="G54">
         <v>3.42</v>
@@ -1616,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1628,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TPE.xlsx
+++ b/TPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Téléchargements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1896AFD3-6437-42FC-8266-70C754E1AF7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78C09DD2-F27D-485F-8EF9-B60D0BF2CC28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,7 @@
         <v>11133</v>
       </c>
       <c r="F30">
-        <v>24241</v>
+        <v>24240</v>
       </c>
       <c r="G30">
         <v>0.06</v>
@@ -1132,13 +1132,13 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="E36">
-        <v>2849</v>
+        <v>3149</v>
       </c>
       <c r="F36">
-        <v>24594</v>
+        <v>24298</v>
       </c>
       <c r="G36">
         <v>0.03</v>

--- a/TPE.xlsx
+++ b/TPE.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Téléchargements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78C09DD2-F27D-485F-8EF9-B60D0BF2CC28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,23 +212,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,23 +247,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,147 +1466,205 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <v>279</v>
+        <v>720</v>
       </c>
       <c r="E57">
-        <v>1726</v>
+        <v>4400</v>
       </c>
       <c r="F57">
-        <v>23362</v>
+        <v>24164</v>
       </c>
       <c r="G57">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I57">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D58">
-        <v>504</v>
+        <v>1260</v>
       </c>
       <c r="E58">
-        <v>3095</v>
+        <v>7665</v>
       </c>
       <c r="F58">
-        <v>24270</v>
+        <v>24194</v>
       </c>
       <c r="G58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H58">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I58">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D59">
-        <v>912</v>
+        <v>2760</v>
       </c>
       <c r="E59">
-        <v>5569</v>
+        <v>16713</v>
       </c>
       <c r="F59">
-        <v>24436</v>
+        <v>24220</v>
       </c>
       <c r="G59">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H59">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I59">
-        <v>0.62</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D60">
-        <v>1628</v>
+        <v>4680</v>
       </c>
       <c r="E60">
-        <v>9893</v>
+        <v>28273</v>
       </c>
       <c r="F60">
-        <v>24934</v>
+        <v>24234</v>
       </c>
       <c r="G60">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="H60">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I60">
-        <v>0.64</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D61">
-        <v>3710</v>
+        <v>8360</v>
       </c>
       <c r="E61">
-        <v>22436</v>
+        <v>50408</v>
       </c>
       <c r="F61">
-        <v>25042</v>
+        <v>24240</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H61">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I61">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>720</v>
+      </c>
+      <c r="E64">
+        <v>4481</v>
+      </c>
+      <c r="F64">
+        <v>24248</v>
+      </c>
+      <c r="G64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1260</v>
+      </c>
+      <c r="E65">
+        <v>7771</v>
+      </c>
+      <c r="F65">
+        <v>24250</v>
+      </c>
+      <c r="G65">
+        <v>0.11</v>
+      </c>
+      <c r="H65">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>2760</v>
+      </c>
+      <c r="E66">
+        <v>16867</v>
+      </c>
+      <c r="F66">
+        <v>24250</v>
+      </c>
+      <c r="G66">
+        <v>0.33</v>
+      </c>
+      <c r="H66">
+        <v>49</v>
+      </c>
+      <c r="I66">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>4680</v>
+      </c>
+      <c r="E67">
+        <v>28467</v>
+      </c>
+      <c r="F67">
+        <v>24252</v>
+      </c>
+      <c r="G67">
+        <v>0.41</v>
+      </c>
+      <c r="H67">
+        <v>78</v>
+      </c>
+      <c r="I67">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68">
-        <v>912</v>
+        <v>8360</v>
       </c>
       <c r="E68">
-        <v>5667</v>
+        <v>50657</v>
       </c>
       <c r="F68">
-        <v>25182</v>
+        <v>24252</v>
       </c>
       <c r="G68">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="H68">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I68">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D69">
-        <v>1628</v>
-      </c>
-      <c r="E69">
-        <v>10019</v>
-      </c>
-      <c r="F69">
-        <v>24986</v>
-      </c>
-      <c r="G69">
-        <v>0.22</v>
-      </c>
-      <c r="H69">
-        <v>33</v>
-      </c>
-      <c r="I69">
-        <v>1.25</v>
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1663,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
